--- a/R/DATA/Maurycy_dane.xlsx
+++ b/R/DATA/Maurycy_dane.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmagd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\repo_R_2024\R\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8929C507-A6BE-48FC-B5E3-BB89921DBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2492F0-77AA-4465-B5EC-BEA23E6CE4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8E764A4-C300-4894-8278-7B2497605827}"/>
   </bookViews>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191DF40D-2C7D-40F4-93F3-F2DA33EFE7FC}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,10 +840,108 @@
       <c r="C28">
         <v>1</v>
       </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45623</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.21875</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45630</v>
       </c>
     </row>
   </sheetData>

--- a/R/DATA/Maurycy_dane.xlsx
+++ b/R/DATA/Maurycy_dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\repo_R_2024\R\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2492F0-77AA-4465-B5EC-BEA23E6CE4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536305B5-DC0B-4F80-940D-82DBAF8AA5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8E764A4-C300-4894-8278-7B2497605827}"/>
   </bookViews>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191DF40D-2C7D-40F4-93F3-F2DA33EFE7FC}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,10 +938,392 @@
       <c r="C35">
         <v>2</v>
       </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45630</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B46" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B47" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45668</v>
       </c>
     </row>
   </sheetData>

--- a/R/DATA/Maurycy_dane.xlsx
+++ b/R/DATA/Maurycy_dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\repo_R_2024\R\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536305B5-DC0B-4F80-940D-82DBAF8AA5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD0006-99D2-49E1-A2D2-D796C372DE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8E764A4-C300-4894-8278-7B2497605827}"/>
   </bookViews>
@@ -37,13 +37,13 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Ilość wypitej kawy (w kubkach)</t>
+    <t>Godzina_wstania</t>
   </si>
   <si>
-    <t>Czas na IG (w minutach)</t>
+    <t>Ilość_wypitej_kawy</t>
   </si>
   <si>
-    <t>Godzina wstania (czasu lokalnego)</t>
+    <t>Czas_na_IG_minuty</t>
   </si>
 </sst>
 </file>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191DF40D-2C7D-40F4-93F3-F2DA33EFE7FC}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,13 +457,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>45632</v>
       </c>
       <c r="B38" s="2">
-        <v>0.34861111111111115</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1240,90 +1240,299 @@
       <c r="A57" s="1">
         <v>45651</v>
       </c>
+      <c r="B57" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>36</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45652</v>
       </c>
+      <c r="B58" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>72</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45653</v>
       </c>
+      <c r="B59" s="2">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45654</v>
       </c>
+      <c r="B60" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>53</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45655</v>
       </c>
+      <c r="B61" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>79</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45656</v>
       </c>
+      <c r="B62" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>28</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45657</v>
       </c>
+      <c r="B63" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>56</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45658</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45659</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45660</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45661</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45662</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45663</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45664</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45665</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45666</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45667</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45668</v>
+      </c>
+      <c r="B74" s="2">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45672</v>
       </c>
     </row>
   </sheetData>
